--- a/output/QUALITY/rebalance/rebalance_20250331.xlsx
+++ b/output/QUALITY/rebalance/rebalance_20250331.xlsx
@@ -6228,13 +6228,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02465452648532923</v>
+        <v>0.02465422863974967</v>
       </c>
       <c r="C2" t="n">
         <v>0.0237160800311229</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0009384464542063278</v>
+        <v>-0.0009381486086267668</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02218956581181582</v>
+        <v>0.02218967493257918</v>
       </c>
       <c r="C3" t="n">
         <v>0.02318839829345931</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0009988324816434975</v>
+        <v>0.0009987233608801313</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6270,13 +6270,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01817154150210511</v>
+        <v>0.01817168329358353</v>
       </c>
       <c r="C4" t="n">
         <v>0.02309621981605199</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004924678313946884</v>
+        <v>0.004924536522468461</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02878552766396161</v>
+        <v>0.02878553693629005</v>
       </c>
       <c r="C5" t="n">
         <v>0.02300499064404501</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.005780537019916605</v>
+        <v>-0.005780546292245045</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.022327595849427</v>
+        <v>0.02232782982330299</v>
       </c>
       <c r="C7" t="n">
         <v>0.02271909138263855</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0003914955332115534</v>
+        <v>0.0003912615593355678</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02321456089828303</v>
+        <v>0.02321405536091804</v>
       </c>
       <c r="C10" t="n">
         <v>0.02232462552269895</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0008899353755840791</v>
+        <v>-0.0008894298382190885</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01762564372787136</v>
+        <v>0.01762557531110893</v>
       </c>
       <c r="C11" t="n">
         <v>0.02191770082815969</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004292057100288328</v>
+        <v>0.004292125517050764</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6438,13 +6438,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0219548261213602</v>
+        <v>0.02195515999165527</v>
       </c>
       <c r="C12" t="n">
         <v>0.02172537737626816</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0002294487450920403</v>
+        <v>-0.0002297826153871176</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02011887543651907</v>
+        <v>0.0201190056563429</v>
       </c>
       <c r="C13" t="n">
         <v>0.02149023222752214</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001371356791003073</v>
+        <v>0.001371226571179246</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6480,13 +6480,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.024489482125689</v>
+        <v>0.02448985834543794</v>
       </c>
       <c r="C14" t="n">
         <v>0.021247899480745</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.003241582644943994</v>
+        <v>-0.003241958864692938</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01657245169641511</v>
+        <v>0.01657275637529302</v>
       </c>
       <c r="C15" t="n">
         <v>0.02082921532768636</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004256763631271251</v>
+        <v>0.004256458952393339</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01711362475899741</v>
+        <v>0.01711412398935615</v>
       </c>
       <c r="C16" t="n">
         <v>0.02072923933950378</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003615614580506365</v>
+        <v>0.003615115350147628</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02231181835643188</v>
+        <v>0.02231201840694996</v>
       </c>
       <c r="C19" t="n">
         <v>0.02065061881768319</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.00166119953874869</v>
+        <v>-0.001661399589266761</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0211594704148211</v>
+        <v>0.02115939993304677</v>
       </c>
       <c r="C20" t="n">
         <v>0.02047773163058514</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0006817387842359621</v>
+        <v>-0.0006816683024616355</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02226019866068343</v>
+        <v>0.02225918169545777</v>
       </c>
       <c r="C21" t="n">
         <v>0.02045918928912676</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.001801009371556674</v>
+        <v>-0.001799992406331014</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6648,13 +6648,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02422876337986571</v>
+        <v>0.02422757571247794</v>
       </c>
       <c r="C22" t="n">
         <v>0.02035486864892872</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.003873894730936991</v>
+        <v>-0.003872707063549221</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6669,13 +6669,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01567830146257699</v>
+        <v>0.01567859805815892</v>
       </c>
       <c r="C23" t="n">
         <v>0.02029651299280078</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004618211530223789</v>
+        <v>0.004617914934641865</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6690,13 +6690,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01874076287494831</v>
+        <v>0.01874085527996167</v>
       </c>
       <c r="C24" t="n">
         <v>0.02018652421123333</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001445761336285017</v>
+        <v>0.001445668931271654</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6711,13 +6711,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01727665382710937</v>
+        <v>0.01727638849992518</v>
       </c>
       <c r="C25" t="n">
         <v>0.0201307899728601</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002854136145750735</v>
+        <v>0.002854401472934927</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02486447404537835</v>
+        <v>0.02486448763650953</v>
       </c>
       <c r="C26" t="n">
         <v>0.01989578398930367</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.004968690056074681</v>
+        <v>-0.004968703647205856</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02268570085982402</v>
+        <v>0.02268540210099563</v>
       </c>
       <c r="C27" t="n">
         <v>0.01956284547376674</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.003122855386057284</v>
+        <v>-0.003122556627228892</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6774,13 +6774,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02015859487943903</v>
+        <v>0.02015845002402019</v>
       </c>
       <c r="C28" t="n">
         <v>0.01929092095348928</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0008676739259497572</v>
+        <v>-0.0008675290705309098</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6795,13 +6795,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01558848216387273</v>
+        <v>0.01558898482315517</v>
       </c>
       <c r="C29" t="n">
         <v>0.01923202496721201</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003643542803339278</v>
+        <v>0.003643040144056838</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6816,13 +6816,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02123520517194657</v>
+        <v>0.02123512649431338</v>
       </c>
       <c r="C30" t="n">
         <v>0.01922355790146852</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.002011647270478045</v>
+        <v>-0.002011568592844858</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0210307591241083</v>
+        <v>0.02103022635922545</v>
       </c>
       <c r="C31" t="n">
         <v>0.01903367623063291</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.001997082893475392</v>
+        <v>-0.001996550128592539</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6858,13 +6858,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01748075399461661</v>
+        <v>0.01748071760948346</v>
       </c>
       <c r="C32" t="n">
         <v>0.01902816997530035</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001547415980683742</v>
+        <v>0.001547452365816892</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6879,13 +6879,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02067750847697524</v>
+        <v>0.02067746222721816</v>
       </c>
       <c r="C33" t="n">
         <v>0.01887910985673226</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001798398620242975</v>
+        <v>-0.001798352370485898</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01880299889010614</v>
+        <v>0.01880320115691441</v>
       </c>
       <c r="C34" t="n">
         <v>0.01874025352867148</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.274536143465945e-05</v>
+        <v>-6.29476282429306e-05</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01812973735566914</v>
+        <v>0.0181297578322446</v>
       </c>
       <c r="C35" t="n">
         <v>0.01854403487152471</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0004142975158555745</v>
+        <v>0.000414277039280115</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6984,13 +6984,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02215167732902738</v>
+        <v>0.02215195433486205</v>
       </c>
       <c r="C38" t="n">
         <v>0.01844316567003351</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.003708511658993871</v>
+        <v>-0.003708788664828547</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02306230803803481</v>
+        <v>0.02306226740896676</v>
       </c>
       <c r="C40" t="n">
         <v>0.0183137463038844</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.004748561734150416</v>
+        <v>-0.004748521105082368</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01935352245939684</v>
+        <v>0.01935350646465785</v>
       </c>
       <c r="C41" t="n">
         <v>0.0182551691194955</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.00109835333990134</v>
+        <v>-0.001098337345162351</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01980759604769977</v>
+        <v>0.01980776734434251</v>
       </c>
       <c r="C42" t="n">
         <v>0.01825516201923072</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.001552434028469045</v>
+        <v>-0.001552605325111787</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0225798447476999</v>
+        <v>0.02258049283180892</v>
       </c>
       <c r="C46" t="n">
         <v>0.01816322140069335</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.004416623347006557</v>
+        <v>-0.004417271431115574</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7173,13 +7173,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02142614131808904</v>
+        <v>0.02142626473064517</v>
       </c>
       <c r="C47" t="n">
         <v>0.01803165065431759</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.003394490663771454</v>
+        <v>-0.003394614076327577</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7194,13 +7194,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02341777802314924</v>
+        <v>0.02341743708949815</v>
       </c>
       <c r="C48" t="n">
         <v>0.01798730737072195</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.005430470652427282</v>
+        <v>-0.005430129718776197</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7215,13 +7215,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01530938592419026</v>
+        <v>0.01530951252586433</v>
       </c>
       <c r="C49" t="n">
         <v>0.01794624653953153</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002636860615341269</v>
+        <v>0.002636734013667208</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7278,13 +7278,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01630106545965703</v>
+        <v>0.01630105711145602</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01630106545965703</v>
+        <v>-0.01630105711145602</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01826267356045254</v>
+        <v>0.01826270049636958</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01826267356045254</v>
+        <v>-0.01826270049636958</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01634513838853221</v>
+        <v>0.01634527463822894</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01634513838853221</v>
+        <v>-0.01634527463822894</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7341,13 +7341,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02067788953699159</v>
+        <v>0.02067783172415226</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02067788953699159</v>
+        <v>-0.02067783172415226</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01942898225892768</v>
+        <v>0.01942913566339433</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01942898225892768</v>
+        <v>-0.01942913566339433</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7383,13 +7383,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01940841398308929</v>
+        <v>0.01940848416564631</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01940841398308929</v>
+        <v>-0.01940848416564631</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7404,13 +7404,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01968625622450659</v>
+        <v>0.01968641586072662</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01968625622450659</v>
+        <v>-0.01968641586072662</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7425,13 +7425,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01665001296322537</v>
+        <v>0.01665017561970044</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01665001296322537</v>
+        <v>-0.01665017561970044</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7446,13 +7446,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01530162043516759</v>
+        <v>0.01530122471211922</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01530162043516759</v>
+        <v>-0.01530122471211922</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01770587932242949</v>
+        <v>0.01770606108135558</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01770587932242949</v>
+        <v>-0.01770606108135558</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7488,13 +7488,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01987693051619252</v>
+        <v>0.01987674189728023</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01987693051619252</v>
+        <v>-0.01987674189728023</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01541082298868468</v>
+        <v>0.0154107549894356</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01541082298868468</v>
+        <v>-0.0154107549894356</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7530,13 +7530,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0183076544587093</v>
+        <v>0.01830761680381323</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.0183076544587093</v>
+        <v>-0.01830761680381323</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>

--- a/output/QUALITY/rebalance/rebalance_20250331.xlsx
+++ b/output/QUALITY/rebalance/rebalance_20250331.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>29.16%</t>
+          <t>29.24%</t>
         </is>
       </c>
     </row>
@@ -6228,13 +6228,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02465422863974967</v>
+        <v>0.02469640565852195</v>
       </c>
       <c r="C2" t="n">
         <v>0.0237160800311229</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0009381486086267668</v>
+        <v>-0.0009803256273990466</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02218967493257918</v>
+        <v>0.02222725790337787</v>
       </c>
       <c r="C3" t="n">
         <v>0.02318839829345931</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0009987233608801313</v>
+        <v>0.0009611403900814455</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6270,13 +6270,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01817168329358353</v>
+        <v>0.01820240841549718</v>
       </c>
       <c r="C4" t="n">
         <v>0.02309621981605199</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004924536522468461</v>
+        <v>0.004893811400554813</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02878553693629005</v>
+        <v>0.02883442392239109</v>
       </c>
       <c r="C5" t="n">
         <v>0.02300499064404501</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.005780546292245045</v>
+        <v>-0.005829433278346084</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02232782982330299</v>
+        <v>0.02236552240437876</v>
       </c>
       <c r="C7" t="n">
         <v>0.02271909138263855</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0003912615593355678</v>
+        <v>0.0003535689782597946</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02321405536091804</v>
+        <v>0.02325399408784482</v>
       </c>
       <c r="C10" t="n">
         <v>0.02232462552269895</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0008894298382190885</v>
+        <v>-0.0009293685651458675</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01762557531110893</v>
+        <v>0.01765558335728391</v>
       </c>
       <c r="C11" t="n">
         <v>0.02191770082815969</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004292125517050764</v>
+        <v>0.004262117470875786</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6438,17 +6438,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02195515999165527</v>
+        <v>0.02148630072669906</v>
       </c>
       <c r="C12" t="n">
         <v>0.02172537737626816</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0002297826153871176</v>
+        <v>0.0002390766495690942</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0201190056563429</v>
+        <v>0.0198373365901981</v>
       </c>
       <c r="C13" t="n">
         <v>0.02149023222752214</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001371226571179246</v>
+        <v>0.001652895637324046</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6480,13 +6480,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02448985834543794</v>
+        <v>0.02453108094787493</v>
       </c>
       <c r="C14" t="n">
         <v>0.021247899480745</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.003241958864692938</v>
+        <v>-0.003283181467129925</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01657275637529302</v>
+        <v>0.01660060233135977</v>
       </c>
       <c r="C15" t="n">
         <v>0.02082921532768636</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004256458952393339</v>
+        <v>0.00422861299632659</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01711412398935615</v>
+        <v>0.01695075889647106</v>
       </c>
       <c r="C16" t="n">
         <v>0.02072923933950378</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003615115350147628</v>
+        <v>0.003778480443032712</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02231201840694996</v>
+        <v>0.02234971811109759</v>
       </c>
       <c r="C19" t="n">
         <v>0.02065061881768319</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.001661399589266761</v>
+        <v>-0.001699099293414399</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02115939993304677</v>
+        <v>0.02119541274479024</v>
       </c>
       <c r="C20" t="n">
         <v>0.02047773163058514</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0006816683024616355</v>
+        <v>-0.0007176811142051015</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02225918169545777</v>
+        <v>0.02229801073205173</v>
       </c>
       <c r="C21" t="n">
         <v>0.02045918928912676</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.001799992406331014</v>
+        <v>-0.001838821442924968</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6648,13 +6648,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02422757571247794</v>
+        <v>0.02426991933467323</v>
       </c>
       <c r="C22" t="n">
         <v>0.02035486864892872</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.003872707063549221</v>
+        <v>-0.003915050685744506</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6669,13 +6669,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01567859805815892</v>
+        <v>0.01570493325786659</v>
       </c>
       <c r="C23" t="n">
         <v>0.02029651299280078</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004617914934641865</v>
+        <v>0.004591579734934195</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6690,13 +6690,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01874085527996167</v>
+        <v>0.01868559662023648</v>
       </c>
       <c r="C24" t="n">
         <v>0.02018652421123333</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001445668931271654</v>
+        <v>0.001500927590996851</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6711,13 +6711,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01727638849992518</v>
+        <v>0.01730600064819907</v>
       </c>
       <c r="C25" t="n">
         <v>0.0201307899728601</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002854401472934927</v>
+        <v>0.002824789324661039</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02486448763650953</v>
+        <v>0.02490670984396536</v>
       </c>
       <c r="C26" t="n">
         <v>0.01989578398930367</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.004968703647205856</v>
+        <v>-0.005010925854661688</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02268540210099563</v>
+        <v>0.02272423570639152</v>
       </c>
       <c r="C27" t="n">
         <v>0.01956284547376674</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.003122556627228892</v>
+        <v>-0.003161390232624781</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6774,13 +6774,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02015845002402019</v>
+        <v>0.02019283708185085</v>
       </c>
       <c r="C28" t="n">
         <v>0.01929092095348928</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0008675290705309098</v>
+        <v>-0.0009019161283615705</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6795,13 +6795,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01558898482315517</v>
+        <v>0.01561496138847844</v>
       </c>
       <c r="C29" t="n">
         <v>0.01923202496721201</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003643040144056838</v>
+        <v>0.003617063578733565</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6816,13 +6816,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02123512649431338</v>
+        <v>0.02127127614802913</v>
       </c>
       <c r="C30" t="n">
         <v>0.01922355790146852</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.002011568592844858</v>
+        <v>-0.002047718246560606</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02103022635922545</v>
+        <v>0.02106648281988712</v>
       </c>
       <c r="C31" t="n">
         <v>0.01903367623063291</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.001996550128592539</v>
+        <v>-0.002032806589254216</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6858,13 +6858,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01748071760948346</v>
+        <v>0.01751044750848375</v>
       </c>
       <c r="C32" t="n">
         <v>0.01902816997530035</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001547452365816892</v>
+        <v>0.001517722466816598</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6879,13 +6879,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02067746222721816</v>
+        <v>0.02071263212695557</v>
       </c>
       <c r="C33" t="n">
         <v>0.01887910985673226</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001798352370485898</v>
+        <v>-0.00183352227022331</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6900,17 +6900,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01880320115691441</v>
+        <v>0.01836395282833985</v>
       </c>
       <c r="C34" t="n">
         <v>0.01874025352867148</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.29476282429306e-05</v>
+        <v>0.0003763007003316325</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0181297578322446</v>
+        <v>0.0181605332588518</v>
       </c>
       <c r="C35" t="n">
         <v>0.01854403487152471</v>
       </c>
       <c r="D35" t="n">
-        <v>0.000414277039280115</v>
+        <v>0.0003835016126729138</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6984,13 +6984,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02215195433486205</v>
+        <v>0.02218930506168425</v>
       </c>
       <c r="C38" t="n">
         <v>0.01844316567003351</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.003708788664828547</v>
+        <v>-0.003746139391650749</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02306226740896676</v>
+        <v>0.02310148260474667</v>
       </c>
       <c r="C40" t="n">
         <v>0.0183137463038844</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.004748521105082368</v>
+        <v>-0.004787736300862273</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01935350646465785</v>
+        <v>0.01938639713332127</v>
       </c>
       <c r="C41" t="n">
         <v>0.0182551691194955</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.001098337345162351</v>
+        <v>-0.001131228013825775</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01980776734434251</v>
+        <v>0.01984124202933753</v>
       </c>
       <c r="C42" t="n">
         <v>0.01825516201923072</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.001552605325111787</v>
+        <v>-0.001586080010106811</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02258049283180892</v>
+        <v>0.02249101319329624</v>
       </c>
       <c r="C46" t="n">
         <v>0.01816322140069335</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.004417271431115574</v>
+        <v>-0.004327791792602894</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7173,13 +7173,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02142626473064517</v>
+        <v>0.02146253662601135</v>
       </c>
       <c r="C47" t="n">
         <v>0.01803165065431759</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.003394614076327577</v>
+        <v>-0.003430885971693765</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7194,13 +7194,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02341743708949815</v>
+        <v>0.02345755640551661</v>
       </c>
       <c r="C48" t="n">
         <v>0.01798730737072195</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.005430129718776197</v>
+        <v>-0.005470249034794653</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7215,13 +7215,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01530951252586433</v>
+        <v>0.01533539106466517</v>
       </c>
       <c r="C49" t="n">
         <v>0.01794624653953153</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002636734013667208</v>
+        <v>0.002610855474866362</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7278,13 +7278,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01630105711145602</v>
+        <v>0.01632875510699288</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01630105711145602</v>
+        <v>-0.01632875510699288</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01826270049636958</v>
+        <v>0.01829369527443498</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01826270049636958</v>
+        <v>-0.01829369527443498</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01634527463822894</v>
+        <v>0.01637290289992284</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01634527463822894</v>
+        <v>-0.01637290289992284</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7341,13 +7341,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02067783172415226</v>
+        <v>0.02071301383425582</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02067783172415226</v>
+        <v>-0.02071301383425582</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01942913566339433</v>
+        <v>0.01946198511191146</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01942913566339433</v>
+        <v>-0.01946198511191146</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7383,13 +7383,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01940848416564631</v>
+        <v>0.01944138189797004</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01940848416564631</v>
+        <v>-0.01944138189797004</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7404,13 +7404,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01968641586072662</v>
+        <v>0.01971969609342612</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01968641586072662</v>
+        <v>-0.01971969609342612</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7425,13 +7425,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01665017561970044</v>
+        <v>0.01667829534686647</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01665017561970044</v>
+        <v>-0.01667829534686647</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7446,13 +7446,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01530122471211922</v>
+        <v>0.01532761238486961</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01530122471211922</v>
+        <v>-0.01532761238486961</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01770606108135558</v>
+        <v>0.01773595524325946</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01770606108135558</v>
+        <v>-0.01773595524325946</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7488,13 +7488,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01987674189728023</v>
+        <v>0.01991069427215526</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01987674189728023</v>
+        <v>-0.01991069427215526</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7509,13 +7509,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0154107549894356</v>
+        <v>0.01543700043424907</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.0154107549894356</v>
+        <v>-0.01543700043424907</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7530,13 +7530,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01830761680381323</v>
+        <v>0.01833875257905996</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01830761680381323</v>
+        <v>-0.01833875257905996</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
